--- a/biology/Mycologie/Coprinopsis/Coprinopsis.xlsx
+++ b/biology/Mycologie/Coprinopsis/Coprinopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coprinopsis[2] P. Karst. est un genre de champignons basidiomycètes de la famille des Psathyrellaceae, morphologiquement proche du genre Coprinus dont il a été séparé sur la base de données moléculaires[3],[4]. 
-Ce genre, qui regroupait les coprins à voile laineux ou diverticulé, s’est enrichi de plusieurs « psathyrelles » surprenantes, comme le groupe presque déliquescent de P. marcescibilis, et le très peu coprinoïde P. melanthina ! Les auteurs justifient leur regroupement par l’absence de pseudoparaphyses chez toutes les espèces du clade[5],[4].
-L'espèce Coprinopsis cinerea, autrefois Coprinus cinereus, est un organisme modèle pour la formation de champignons Basidiomycètes : son génome a récemment été entièrement séquencé[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coprinopsis P. Karst. est un genre de champignons basidiomycètes de la famille des Psathyrellaceae, morphologiquement proche du genre Coprinus dont il a été séparé sur la base de données moléculaires,. 
+Ce genre, qui regroupait les coprins à voile laineux ou diverticulé, s’est enrichi de plusieurs « psathyrelles » surprenantes, comme le groupe presque déliquescent de P. marcescibilis, et le très peu coprinoïde P. melanthina ! Les auteurs justifient leur regroupement par l’absence de pseudoparaphyses chez toutes les espèces du clade,.
+L'espèce Coprinopsis cinerea, autrefois Coprinus cinereus, est un organisme modèle pour la formation de champignons Basidiomycètes : son génome a récemment été entièrement séquencé.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après la 10e édition de Dictionary of the Fungi[7] (2007), ce genre est constitué des espèces suivantes :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la 10e édition de Dictionary of the Fungi (2007), ce genre est constitué des espèces suivantes :
 Coprinopsis acuminata
 Coprinopsis ammophilae
 Coprinopsis argentea
@@ -532,7 +546,7 @@
 Coprinopsis echinospora
 Coprinopsis episcopalis
 Coprinopsis erythrocephala
-Coprinopsis extinctoria[8]
+Coprinopsis extinctoria
 Coprinopsis fibrillosa
 Coprinopsis filamentifer
 Coprinopsis friesii
